--- a/data/trans_orig/iP30A7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A7_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{137D2FD9-B369-451A-8072-C35909907070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1B0C18-6EC8-41CF-878B-60924EEACEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ACCA24DB-7A4B-4ECD-94A6-CDF05B0A8590}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B29BD386-E1CC-4E1E-A7B0-B42F4F322043}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>91,11%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
   </si>
   <si>
     <t>12,19%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A143A3-2F20-4676-A0ED-AB1912921C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C0F35A-184A-4FF0-B204-2130C12BAE26}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>50272</v>
+        <v>23788</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>36283</v>
+        <v>23533</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>86555</v>
+        <v>47321</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>433</v>
+        <v>240</v>
       </c>
       <c r="D8" s="7">
-        <v>352009</v>
+        <v>180686</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>313331</v>
+        <v>174734</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>854</v>
+        <v>490</v>
       </c>
       <c r="N8" s="7">
-        <v>665339</v>
+        <v>355420</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>23788</v>
+        <v>50272</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>23533</v>
+        <v>36283</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>47321</v>
+        <v>86555</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="D11" s="7">
-        <v>180686</v>
+        <v>352009</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="I11" s="7">
-        <v>174734</v>
+        <v>313331</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>490</v>
+        <v>854</v>
       </c>
       <c r="N11" s="7">
-        <v>355420</v>
+        <v>665339</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A7_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1B0C18-6EC8-41CF-878B-60924EEACEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{318C671F-5283-401E-B31A-047ED94954D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B29BD386-E1CC-4E1E-A7B0-B42F4F322043}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3664884-8BC0-439F-B539-755F99687E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si toman legumbres más de una vez a la semana en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,238 +65,292 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +361,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +457,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +652,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +660,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +731,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C0F35A-184A-4FF0-B204-2130C12BAE26}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6959E8-99A8-4727-8073-8654185EF9EB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>12433</v>
+        <v>36135</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>7124</v>
+        <v>42633</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>19557</v>
+        <v>78768</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>90146</v>
+        <v>7009</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>85603</v>
+        <v>3660</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>175749</v>
+        <v>10668</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D7" s="7">
-        <v>23788</v>
+        <v>156057</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="I7" s="7">
-        <v>23533</v>
+        <v>144284</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="N7" s="7">
-        <v>47321</v>
+        <v>300341</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>180686</v>
+        <v>18660</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>174734</v>
+        <v>14481</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>490</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>355420</v>
+        <v>33141</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="D10" s="7">
-        <v>50272</v>
+        <v>181919</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="I10" s="7">
-        <v>36283</v>
+        <v>156818</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="N10" s="7">
-        <v>86555</v>
+        <v>338737</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>433</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>352009</v>
+        <v>20559</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>421</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>313331</v>
+        <v>19295</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>854</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>665339</v>
+        <v>39854</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D13" s="7">
-        <v>86494</v>
+        <v>248727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="I13" s="7">
-        <v>66939</v>
+        <v>229935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>183</v>
+        <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>153433</v>
+        <v>478663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>842</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>622840</v>
+        <v>40267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>830</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>573670</v>
+        <v>29503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1672</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>1196509</v>
+        <v>69770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1447,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>842</v>
+      </c>
+      <c r="D16" s="7">
+        <v>622839</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>830</v>
+      </c>
+      <c r="I16" s="7">
+        <v>573670</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1196509</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>98</v>
+      </c>
+      <c r="D17" s="7">
+        <v>86494</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
+        <v>85</v>
+      </c>
+      <c r="I17" s="7">
+        <v>66939</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="7">
+        <v>183</v>
+      </c>
+      <c r="N17" s="7">
+        <v>153433</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
